--- a/xlsx/经院哲学_intext.xlsx
+++ b/xlsx/经院哲学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1488">
   <si>
     <t>经院哲学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>拉丁语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_经院哲学</t>
+    <t>政策_政策_政治学_经院哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%9B%AD</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%A7%80</t>
   </si>
   <si>
-    <t>直觀</t>
+    <t>直观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教父哲學</t>
+    <t>教父哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>聖奧古斯丁</t>
+    <t>圣奥古斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BE%A9</t>
   </si>
   <si>
-    <t>教義</t>
+    <t>教义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%A2%9D</t>
   </si>
   <si>
-    <t>信條</t>
+    <t>信条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E7%B4%8D</t>
   </si>
   <si>
-    <t>聖托馬斯·阿奎納</t>
+    <t>圣托马斯·阿奎纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%A6%E5%A4%A7%E5%85%A8</t>
@@ -167,37 +167,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%AC%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬公教</t>
+    <t>罗马公教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E4%BB%81%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>輔仁大學</t>
+    <t>辅仁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E4%BB%81%E8%81%96%E5%8D%9A%E6%95%8F%E7%A5%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>輔仁聖博敏神學院</t>
+    <t>辅仁圣博敏神学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%AD%B8%E8%A1%93%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>天主教學術研究院</t>
+    <t>天主教学术研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>Template talk-中世紀</t>
+    <t>Template talk-中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E5%89%8D%E6%9C%9F</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>維京時期</t>
+    <t>维京时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%95%99%E6%9C%83%E6%96%AF%E6%8B%89%E5%A4%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>古教會斯拉夫語</t>
+    <t>古教会斯拉夫语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85%E7%BD%97%E6%96%AF</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%B8%AD%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀中期</t>
+    <t>中世纪中期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BB%BB%E6%9D%83%E6%96%97%E4%BA%89</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%BA%AB%E6%9A%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀溫暖時期</t>
+    <t>中世纪温暖时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%BE%8C%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀後期</t>
+    <t>中世纪后期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%89%AE%E7%AC%AC%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃艮第公國</t>
+    <t>勃艮第公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>天主教會大分裂</t>
+    <t>天主教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E7%9A%84%E9%99%B7%E8%90%BD</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%B4%9B%E8%B5%B7</t>
   </si>
   <si>
-    <t>奧斯曼帝國的崛起</t>
+    <t>奥斯曼帝国的崛起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%BF%91%E5%8D%AB%E9%98%9F</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文藝復興人文主義</t>
+    <t>文艺复兴人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀大學</t>
+    <t>中世纪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%B0%E6%9C%9F</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>中世紀飲食</t>
+    <t>中世纪饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E6%96%87%E5%AD%A6</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>中世紀音樂</t>
+    <t>中世纪音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀美學</t>
+    <t>中世纪美学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E6%88%98%E4%BA%89</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%BB%91%E6%9A%97%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>歐洲黑暗時代</t>
+    <t>欧洲黑暗时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%97%B6%E4%BB%A3</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E9%AD%AF%E5%B0%BC</t>
   </si>
   <si>
-    <t>比魯尼</t>
+    <t>比鲁尼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brethren_of_Purity</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>安薩里</t>
+    <t>安萨里</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Abu%27l-Barak%C4%81t_al-Baghd%C4%81d%C4%AB</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ibn_Sab%27in</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%89%B9%E4%BC%AF%C2%B7%E8%BF%AA%C2%B7%E6%81%AF%E6%8B%89%E8%BE%9B</t>
   </si>
   <si>
-    <t>庫特伯·迪·息拉辛</t>
+    <t>库特伯·迪·息拉辛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E6%B3%B0%E7%B1%B3%E8%91%89</t>
   </si>
   <si>
-    <t>伊本·泰米葉</t>
+    <t>伊本·泰米叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%B5%AB%E5%8B%92%E6%95%A6</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E8%92%99%E5%B0%BC%E5%BE%B7</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%93%88%E7%91%AA%E5%B0%BC%E5%BE%B7</t>
   </si>
   <si>
-    <t>納哈瑪尼德</t>
+    <t>纳哈玛尼德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%93%B2%E5%AD%A6</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%C2%B7%E5%8F%B8%E5%90%84%E7%89%B9%C2%B7%E6%84%9B%E7%95%99%E6%A0%B9%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰內斯·司各特·愛留根納</t>
+    <t>约翰内斯·司各特·爱留根纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%90%B4</t>
@@ -761,9 +761,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7%E7%9A%84%E5%AE%89%E7%91%9F%E8%8E%AB</t>
   </si>
   <si>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%AD%E5%85%8B%E6%89%98%E7%9A%84%E4%BC%91%E6%A0%BC</t>
   </si>
   <si>
-    <t>聖維克托的休格</t>
+    <t>圣维克托的休格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Richard_of_St._Victor</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A1%9E%E6%9E%97</t>
   </si>
   <si>
-    <t>羅塞林</t>
+    <t>罗塞林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E5%B7%B4%E7%AC%AC%E4%BA%BA%E5%BD%BC%E5%BE%97</t>
@@ -845,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BC%AF%E5%9C%96%E6%96%AF%C2%B7%E9%BA%A5%E6%A0%BC%E5%8A%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>艾爾伯圖斯·麥格努斯</t>
+    <t>艾尔伯图斯·麦格努斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E5%BE%B7</t>
   </si>
   <si>
-    <t>聖文德</t>
+    <t>圣文德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E9%82%A3</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E7%88%BE%C2%B7%E5%A5%A7%E9%87%8C%E6%96%AF%E5%A7%86</t>
   </si>
   <si>
-    <t>尼克爾·奧里斯姆</t>
+    <t>尼克尔·奥里斯姆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Albert_of_Saxony_(philosopher)</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>弗朗西斯科·維多利亞</t>
+    <t>弗朗西斯科·维多利亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A5%9E%E5%AD%A6</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>聖經研究</t>
+    <t>圣经研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%BB%8F</t>
@@ -1067,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%88%B6</t>
   </si>
   <si>
-    <t>聖父</t>
+    <t>圣父</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AD%90</t>
   </si>
   <si>
-    <t>聖子</t>
+    <t>圣子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E6%A0%BC%E5%90%88%E4%B8%80</t>
@@ -1097,19 +1094,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E5%90%84%E6%96%AF</t>
   </si>
   <si>
-    <t>邏各斯</t>
+    <t>逻各斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E4%B8%AD%E5%BF%83%E8%AB%96</t>
   </si>
   <si>
-    <t>基督中心論</t>
+    <t>基督中心论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E4%B8%AD%E5%BF%83%E8%AE%BA</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E8%A8%98</t>
   </si>
   <si>
-    <t>創世記</t>
+    <t>创世记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%AB%96</t>
   </si>
   <si>
-    <t>人論</t>
+    <t>人论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E5%A4%A9%E4%BD%BF</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%95%91%E8%B4%96%E8%AB%96</t>
   </si>
   <si>
-    <t>基督教救贖論</t>
+    <t>基督教救赎论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A6%E5%85%8D</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E6%81%95</t>
   </si>
   <si>
-    <t>寬恕</t>
+    <t>宽恕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%85%B8</t>
@@ -1229,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%AB%96</t>
   </si>
   <si>
-    <t>罪論</t>
+    <t>罪论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93</t>
@@ -1271,19 +1268,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖禮</t>
+    <t>圣礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%94%BF%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>教政體制</t>
+    <t>教政体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E7%9C%BE%E5%88%B6</t>
   </si>
   <si>
-    <t>會眾制</t>
+    <t>会众制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99%E5%88%B6</t>
@@ -1367,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9A%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>神的國</t>
+    <t>神的国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8B%B1</t>
@@ -1421,13 +1418,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史神學</t>
+    <t>历史神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>使徒時代</t>
+    <t>使徒时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E4%BC%AF%E6%8B%89%E7%BA%A0%E4%B8%BB%E4%B9%89</t>
@@ -1463,19 +1460,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%B8%90%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>實踐神學</t>
+    <t>实践神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%BE%A8%E6%83%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教辨惑學</t>
+    <t>基督教辨惑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A5%9E%E5%AD%A6</t>
@@ -1487,13 +1484,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖經神學</t>
+    <t>圣经神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastern_Orthodox_Christian_theology</t>
@@ -1505,13 +1502,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E5%AE%9A%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>否定神學</t>
+    <t>否定神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%AD%90%E8%AA%AA</t>
   </si>
   <si>
-    <t>和子說</t>
+    <t>和子说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E7%A5%9E%E8%AE%BA</t>
@@ -1523,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
   </si>
   <si>
-    <t>聖母 (基督教)</t>
+    <t>圣母 (基督教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%A5%9E%E5%AD%A6</t>
@@ -1535,19 +1532,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%8D%87%E5%A4%A9%E8%AA%AA</t>
   </si>
   <si>
-    <t>聖母升天說</t>
+    <t>圣母升天说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%83%8F%E7%95%AB</t>
   </si>
   <si>
-    <t>聖像畫</t>
+    <t>圣像画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%AC%E5%A5%89</t>
@@ -1607,9 +1604,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%A6</t>
   </si>
   <si>
-    <t>解放神学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Anglican_doctrine</t>
   </si>
   <si>
@@ -1631,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>衛斯理主義</t>
+    <t>卫斯理主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theology_of_Martin_Luther</t>
@@ -1649,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%81%A9%E7%8B%AC%E4%BD%9C</t>
@@ -1697,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -1709,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E8%BE%A9%E5%BC%8F%E6%80%9D%E7%BB%B4</t>
@@ -1799,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90-%E7%B6%9C%E5%90%88%E5%8D%80%E5%88%A5</t>
   </si>
   <si>
-    <t>分析-綜合區別</t>
+    <t>分析-综合区别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%BE%8B%E8%83%8C%E5%8F%8D</t>
@@ -1841,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E7%9C%9F%E7%90%86</t>
   </si>
   <si>
-    <t>邏輯真理</t>
+    <t>逻辑真理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E7%A7%B0</t>
@@ -1919,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>哲學分析</t>
+    <t>哲学分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E7%BE%A9%E6%80%A7</t>
   </si>
   <si>
-    <t>歧義性</t>
+    <t>歧义性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91%E8%AE%BA%E8%AF%81</t>
@@ -1943,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BF%A1%E5%8A%9B</t>
@@ -1967,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%AC%E8%AE%BA</t>
@@ -1997,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF</t>
   </si>
   <si>
-    <t>關聯</t>
+    <t>关联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%9E%E5%AD%A6</t>
@@ -2027,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>有限主義</t>
+    <t>有限主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E4%B8%BB%E4%B9%89</t>
@@ -2045,13 +2039,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>邏輯主義</t>
+    <t>逻辑主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%90%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>唯名論</t>
+    <t>唯名论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -2063,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%AF%A6%E8%AB%96</t>
   </si>
   <si>
-    <t>唯實論</t>
+    <t>唯实论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%89%98%E5%B0%94%E5%AE%9A%E7%90%86</t>
@@ -2297,7 +2291,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E9%9A%8E%E9%82%8F%E8%BC%AF</t>
   </si>
   <si>
-    <t>二階邏輯</t>
+    <t>二阶逻辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%83%E8%B0%93%E8%AF%8D%E6%BC%94%E7%AE%97</t>
@@ -2339,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%AA%E9%9B%86</t>
   </si>
   <si>
-    <t>冪集</t>
+    <t>幂集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%95%B0%E9%9B%86</t>
@@ -2405,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E6%80%A7%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>決定性問題</t>
+    <t>决定性问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AE%A1%E7%AE%97%E5%87%BD%E6%95%B0</t>
@@ -2537,15 +2531,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亚里斯多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%B2%81%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·鲁世德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%B8%83%E5%B0%94</t>
   </si>
   <si>
@@ -2573,13 +2561,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%87%B1%E7%88%BE%C2%B7%E5%8A%A0%E9%87%8C</t>
   </si>
   <si>
-    <t>哈斯凱爾·加里</t>
+    <t>哈斯凯尔·加里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E5%A1%94%E6%96%AF%C2%B7%E5%BE%B7%E6%91%A9%E6%A0%B9</t>
   </si>
   <si>
-    <t>奧古斯塔斯·德摩根</t>
+    <t>奥古斯塔斯·德摩根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%89%B9%E6%B4%9B%E5%B8%83%C2%B7%E5%BC%97%E9%9B%B7%E6%A0%BC</t>
@@ -2621,13 +2609,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A5%A7%E5%B8%95%E5%BE%B7%C2%B7%E5%8B%92%E6%96%87%E6%B5%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>李奧帕德·勒文海姆</t>
+    <t>李奥帕德·勒文海姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%A1%9E%E4%BD%A9%C2%B7%E7%9A%AE%E4%BA%9E%E8%AB%BE</t>
   </si>
   <si>
-    <t>朱塞佩·皮亞諾</t>
+    <t>朱塞佩·皮亚诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%A1%91%E5%BE%B7%E6%96%AF%C2%B7%E7%9A%AE%E5%B0%94%E5%A3%AB</t>
@@ -2663,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E7%AD%96%E6%A2%85%E6%B4%9B</t>
@@ -2759,7 +2747,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%B5%AA%E4%B8%BB%E4%B9%89</t>
@@ -2789,7 +2777,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joxe_Azurmendi</t>
@@ -2819,19 +2807,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%8C%B2%C2%B7%E9%AE%91%E4%BA%9E%E5%A3%AB</t>
   </si>
   <si>
-    <t>法蘭茲·鮑亞士</t>
+    <t>法兰兹·鲍亚士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%94%B0%E7%AB%8B%E5%85%8B</t>
   </si>
   <si>
-    <t>保羅·田立克</t>
+    <t>保罗·田立克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E8%96%A9%E4%B8%95%E7%88%BE</t>
   </si>
   <si>
-    <t>愛德華·薩丕爾</t>
+    <t>爱德华·萨丕尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Leonard_Bloomfield</t>
@@ -2849,7 +2837,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%B6%AD%C2%B7%E7%B6%AD%E8%B0%B7%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>利維·維谷斯基</t>
+    <t>利维·维谷斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
@@ -2897,13 +2885,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A0%88%E5%A1%94%E5%B1%8B%C2%B7%E5%8C%97%E4%BA%9E%E5%93%A5%E6%9B%BC</t>
   </si>
   <si>
-    <t>古須塔屋·北亞哥曼</t>
+    <t>古须塔屋·北亚哥曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%A5%A7%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>約翰·奧斯丁</t>
+    <t>约翰·奥斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%A7%86%C2%B7%E4%B9%94%E5%A7%86%E6%96%AF%E5%9F%BA</t>
@@ -2921,7 +2909,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%9C%B1%E7%88%BE%E6%96%AF%C2%B7%E8%89%BE%E8%80%B6%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾弗雷德·朱爾斯·艾耶爾</t>
+    <t>艾尔弗雷德·朱尔斯·艾耶尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%C2%B7%E5%AE%89%E6%96%AF%E5%BA%B7%E5%A7%86</t>
@@ -2945,7 +2933,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>保羅·格萊斯</t>
+    <t>保罗·格莱斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gilbert_Ryle</t>
@@ -2999,7 +2987,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Descriptivist_theory_of_names</t>
@@ -3065,7 +3053,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>寂靜主義</t>
+    <t>寂静主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Relevance_theory</t>
@@ -3089,7 +3077,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Supposition_theory</t>
@@ -3125,7 +3113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E7%BE%A9</t>
   </si>
   <si>
-    <t>歧義</t>
+    <t>歧义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
@@ -3137,7 +3125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%84%8F</t>
   </si>
   <si>
-    <t>語意</t>
+    <t>语意</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
@@ -3191,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>元語言</t>
+    <t>元语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E8%A1%A8%E5%BE%81</t>
@@ -3239,7 +3227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A5%E5%AD%90</t>
@@ -3257,7 +3245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5%E5%93%B2%E5%AD%A6</t>
@@ -3299,7 +3287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -3317,7 +3305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>行動理論</t>
+    <t>行动理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_culture</t>
@@ -3359,13 +3347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
+    <t>教育哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_healthcare</t>
@@ -3383,7 +3371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學人類學</t>
+    <t>哲学人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theories_of_humor</t>
@@ -3443,13 +3431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理哲學</t>
+    <t>地理哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_sex</t>
@@ -3473,7 +3461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%A6</t>
@@ -3527,7 +3515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>哲學史</t>
+    <t>哲学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%93%B2%E5%AD%A6</t>
@@ -3545,7 +3533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>近代哲學</t>
+    <t>近代哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E6%97%B6%E6%9C%9F%E5%93%B2%E5%AD%A6</t>
@@ -3557,7 +3545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%BA%AA%E5%93%B2%E5%AD%A6</t>
@@ -3575,7 +3563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%93%B2%E5%AD%A6</t>
@@ -3611,7 +3599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E7%8E%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>魏晉玄學</t>
+    <t>魏晋玄学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6</t>
@@ -3659,7 +3647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%AD%E8%BE%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>詭辯學派</t>
+    <t>诡辩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -3671,25 +3659,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>亞里斯多德主義</t>
+    <t>亚里斯多德主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>犬儒學派</t>
+    <t>犬儒学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊比鳩魯學派</t>
+    <t>伊比鸠鲁学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -3701,7 +3689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>解釋學</t>
+    <t>解释学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%A6</t>
@@ -3773,7 +3761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -3791,13 +3779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>事功學派</t>
+    <t>事功学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓國儒學</t>
+    <t>韩国儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%B1%E5%AD%90%E5%AD%A6</t>
@@ -3929,7 +3917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -3947,13 +3935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
@@ -3971,7 +3959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本國學</t>
+    <t>日本国学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -3995,7 +3983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗哲學</t>
+    <t>实验哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internalism_and_externalism</t>
@@ -4037,7 +4025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E8%AA%9E%E8%A8%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常語言哲學</t>
+    <t>日常语言哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
@@ -4061,7 +4049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%AD%A6%E6%B4%BE</t>
@@ -4073,13 +4061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_philosophy</t>
@@ -4091,7 +4079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Postmodern_philosophy</t>
@@ -4103,7 +4091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -4115,7 +4103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>京都學派</t>
+    <t>京都学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_cosmism</t>
@@ -4151,7 +4139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libertarianism_(metaphysics)</t>
@@ -4163,7 +4151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>原子論</t>
+    <t>原子论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -4181,7 +4169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>形而上自然主義</t>
+    <t>形而上自然主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constructivist_epistemology</t>
@@ -4205,7 +4193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reasonism</t>
@@ -4223,7 +4211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
@@ -4253,13 +4241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norm_(philosophy)</t>
@@ -4289,7 +4277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E8%99%9B%E7%84%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德虛無主義</t>
+    <t>道德虚无主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%80%80%E7%96%91%E4%B8%BB%E4%B9%89</t>
@@ -4319,7 +4307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -4331,15 +4319,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>概念論</t>
+    <t>概念论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -4349,7 +4334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%93%B2%E5%AD%A6</t>
@@ -4373,7 +4358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本哲學</t>
+    <t>日本哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_philosophy</t>
@@ -4421,7 +4406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>德國哲學</t>
+    <t>德国哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_philosophy</t>
@@ -4457,25 +4442,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E5%93%B2%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的哲學問題</t>
+    <t>未解决的哲学问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%A6%82%E5%BF%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學概念列表</t>
+    <t>哲学概念列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學家列表</t>
+    <t>哲学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4487,13 +4472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8460,7 +8445,7 @@
         <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -8486,10 +8471,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -8515,10 +8500,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -8544,10 +8529,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -8573,10 +8558,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -8602,10 +8587,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8631,10 +8616,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8660,10 +8645,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8689,10 +8674,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8718,10 +8703,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8747,10 +8732,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8776,10 +8761,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8805,10 +8790,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8834,10 +8819,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8863,10 +8848,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8892,10 +8877,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8921,10 +8906,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8950,10 +8935,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8979,10 +8964,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -9008,10 +8993,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -9037,10 +9022,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -9066,10 +9051,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -9095,10 +9080,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -9124,10 +9109,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -9153,10 +9138,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -9182,10 +9167,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -9211,10 +9196,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -9240,10 +9225,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -9269,10 +9254,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -9298,10 +9283,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -9327,10 +9312,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -9356,10 +9341,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -9385,10 +9370,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -9414,10 +9399,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -9443,10 +9428,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -9472,10 +9457,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -9501,10 +9486,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -9530,10 +9515,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -9559,10 +9544,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -9588,10 +9573,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -9617,10 +9602,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -9646,10 +9631,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -9675,10 +9660,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9704,10 +9689,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -9733,10 +9718,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9762,10 +9747,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9791,10 +9776,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9820,10 +9805,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9849,10 +9834,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -9878,10 +9863,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9907,10 +9892,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9936,10 +9921,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9965,10 +9950,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9994,10 +9979,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -10023,10 +10008,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -10052,10 +10037,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -10081,10 +10066,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -10110,10 +10095,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -10139,10 +10124,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -10168,10 +10153,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -10197,10 +10182,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -10226,10 +10211,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -10255,10 +10240,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -10284,10 +10269,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -10313,10 +10298,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -10342,10 +10327,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -10371,10 +10356,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -10400,10 +10385,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -10429,10 +10414,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -10458,10 +10443,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -10487,10 +10472,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -10516,10 +10501,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -10545,10 +10530,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -10574,10 +10559,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -10603,10 +10588,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -10632,10 +10617,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -10661,10 +10646,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10690,10 +10675,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10719,10 +10704,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10748,10 +10733,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10777,10 +10762,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10806,10 +10791,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -10835,10 +10820,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>7</v>
@@ -10864,10 +10849,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -10893,10 +10878,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10922,10 +10907,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -10951,10 +10936,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10980,10 +10965,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -11009,10 +10994,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -11038,10 +11023,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -11067,10 +11052,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -11096,10 +11081,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -11125,10 +11110,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -11154,10 +11139,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -11183,10 +11168,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -11212,10 +11197,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -11241,10 +11226,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -11270,10 +11255,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -11299,10 +11284,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -11328,10 +11313,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -11357,10 +11342,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -11386,10 +11371,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -11415,10 +11400,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -11444,10 +11429,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -11473,10 +11458,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -11502,10 +11487,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -11531,10 +11516,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -11560,10 +11545,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -11589,10 +11574,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11618,10 +11603,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11647,10 +11632,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11676,10 +11661,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -11705,10 +11690,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11734,10 +11719,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11763,10 +11748,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -11792,10 +11777,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11821,10 +11806,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11850,10 +11835,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11879,10 +11864,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11908,10 +11893,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11937,10 +11922,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
         <v>487</v>
-      </c>
-      <c r="F245" t="s">
-        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11966,10 +11951,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" t="s">
         <v>489</v>
-      </c>
-      <c r="F246" t="s">
-        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11995,10 +11980,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>490</v>
+      </c>
+      <c r="F247" t="s">
         <v>491</v>
-      </c>
-      <c r="F247" t="s">
-        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -12024,10 +12009,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>492</v>
+      </c>
+      <c r="F248" t="s">
         <v>493</v>
-      </c>
-      <c r="F248" t="s">
-        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -12053,10 +12038,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>494</v>
+      </c>
+      <c r="F249" t="s">
         <v>495</v>
-      </c>
-      <c r="F249" t="s">
-        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -12082,10 +12067,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>496</v>
+      </c>
+      <c r="F250" t="s">
         <v>497</v>
-      </c>
-      <c r="F250" t="s">
-        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -12111,10 +12096,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
         <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -12140,10 +12125,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" t="s">
         <v>501</v>
-      </c>
-      <c r="F252" t="s">
-        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -12169,10 +12154,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>502</v>
+      </c>
+      <c r="F253" t="s">
         <v>503</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -12198,10 +12183,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>504</v>
+      </c>
+      <c r="F254" t="s">
         <v>505</v>
-      </c>
-      <c r="F254" t="s">
-        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -12227,10 +12212,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
         <v>507</v>
-      </c>
-      <c r="F255" t="s">
-        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -12256,10 +12241,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -12285,10 +12270,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -12314,10 +12299,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -12343,10 +12328,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -12372,10 +12357,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -12401,10 +12386,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -12430,10 +12415,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -12459,10 +12444,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -12488,10 +12473,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -12517,10 +12502,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -12546,10 +12531,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -12575,10 +12560,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -12604,10 +12589,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -12633,10 +12618,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -12662,10 +12647,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -12691,10 +12676,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12720,10 +12705,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12749,10 +12734,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12778,10 +12763,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -12807,10 +12792,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12836,10 +12821,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12865,10 +12850,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12894,10 +12879,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12923,10 +12908,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12952,10 +12937,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12981,10 +12966,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -13010,10 +12995,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -13039,10 +13024,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G283" t="n">
         <v>59</v>
@@ -13068,10 +13053,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -13097,10 +13082,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -13126,10 +13111,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -13155,10 +13140,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -13184,10 +13169,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -13213,10 +13198,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -13242,10 +13227,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F290" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -13271,10 +13256,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F291" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G291" t="n">
         <v>6</v>
@@ -13300,10 +13285,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F292" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -13329,10 +13314,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -13358,10 +13343,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F294" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -13387,10 +13372,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F295" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -13416,10 +13401,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F296" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -13445,10 +13430,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F297" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G297" t="n">
         <v>4</v>
@@ -13474,10 +13459,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -13503,10 +13488,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -13532,10 +13517,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -13561,10 +13546,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -13590,10 +13575,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -13619,10 +13604,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F303" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -13648,10 +13633,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F304" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -13677,10 +13662,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F305" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -13706,10 +13691,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -13735,10 +13720,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -13764,10 +13749,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13793,10 +13778,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -13822,10 +13807,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13851,10 +13836,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13880,10 +13865,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13909,10 +13894,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G313" t="n">
         <v>8</v>
@@ -13938,10 +13923,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13967,10 +13952,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -13996,10 +13981,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -14025,10 +14010,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G317" t="n">
         <v>6</v>
@@ -14054,10 +14039,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G318" t="n">
         <v>4</v>
@@ -14083,10 +14068,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -14112,10 +14097,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G320" t="n">
         <v>8</v>
@@ -14141,10 +14126,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -14170,10 +14155,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -14199,10 +14184,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -14228,10 +14213,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -14257,10 +14242,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -14286,10 +14271,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -14315,10 +14300,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -14344,10 +14329,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -14373,10 +14358,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -14402,10 +14387,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -14431,10 +14416,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -14460,10 +14445,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -14489,10 +14474,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -14518,10 +14503,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -14547,10 +14532,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -14576,10 +14561,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14605,10 +14590,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -14634,10 +14619,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14663,10 +14648,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -14692,10 +14677,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -14721,10 +14706,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14750,10 +14735,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -14779,10 +14764,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -14808,10 +14793,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -14837,10 +14822,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F345" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14866,10 +14851,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F346" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -14895,10 +14880,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F347" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -14924,10 +14909,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F348" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14953,10 +14938,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F349" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14982,10 +14967,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F350" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -15011,10 +14996,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F351" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -15040,10 +15025,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F352" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -15069,10 +15054,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F353" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -15098,10 +15083,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F354" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -15127,10 +15112,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F355" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -15156,10 +15141,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F356" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -15185,10 +15170,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F357" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -15214,10 +15199,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F358" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G358" t="n">
         <v>12</v>
@@ -15243,10 +15228,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F359" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -15272,10 +15257,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G360" t="n">
         <v>14</v>
@@ -15301,10 +15286,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F361" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -15330,10 +15315,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F362" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -15359,10 +15344,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F363" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -15388,10 +15373,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F364" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
@@ -15417,10 +15402,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F365" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -15446,10 +15431,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F366" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G366" t="n">
         <v>7</v>
@@ -15475,10 +15460,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F367" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -15504,10 +15489,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -15533,10 +15518,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -15562,10 +15547,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G370" t="n">
         <v>5</v>
@@ -15591,10 +15576,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F371" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15620,10 +15605,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F372" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15649,10 +15634,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F373" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15678,10 +15663,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F374" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -15707,10 +15692,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F375" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15736,10 +15721,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F376" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15765,10 +15750,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F377" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15794,10 +15779,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F378" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15823,10 +15808,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F379" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15852,10 +15837,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F380" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15881,10 +15866,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F381" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15910,10 +15895,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F382" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15939,10 +15924,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F383" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15968,10 +15953,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F384" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15997,10 +15982,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F385" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -16026,10 +16011,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F386" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -16055,10 +16040,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F387" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -16084,10 +16069,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F388" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -16113,10 +16098,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F389" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -16142,10 +16127,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F390" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -16171,10 +16156,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F391" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -16200,10 +16185,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F392" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -16229,10 +16214,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F393" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -16258,10 +16243,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F394" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -16287,10 +16272,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F395" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -16316,10 +16301,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F396" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -16345,10 +16330,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F397" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G397" t="n">
         <v>5</v>
@@ -16374,10 +16359,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F398" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -16403,10 +16388,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F399" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G399" t="n">
         <v>5</v>
@@ -16432,10 +16417,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F400" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -16461,10 +16446,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F401" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -16490,10 +16475,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F402" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -16519,10 +16504,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F403" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -16548,10 +16533,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F404" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16577,10 +16562,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F405" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16606,10 +16591,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F406" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16635,10 +16620,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F407" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16664,10 +16649,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F408" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16693,10 +16678,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F409" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16722,10 +16707,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F410" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16751,10 +16736,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F411" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16780,10 +16765,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F412" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16809,10 +16794,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F413" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -16838,10 +16823,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F414" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16867,10 +16852,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F415" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16896,10 +16881,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F416" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16925,10 +16910,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F417" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16954,10 +16939,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F418" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16983,10 +16968,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F419" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -17012,10 +16997,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F420" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -17041,10 +17026,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F421" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -17070,10 +17055,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F422" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -17099,10 +17084,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F423" t="s">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -17128,10 +17113,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F424" t="s">
-        <v>842</v>
+        <v>198</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -17186,10 +17171,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F426" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -17215,10 +17200,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F427" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -17244,10 +17229,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F428" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -17273,10 +17258,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F429" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -17302,10 +17287,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F430" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -17331,10 +17316,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F431" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -17360,10 +17345,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F432" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -17389,10 +17374,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F433" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -17418,10 +17403,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F434" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G434" t="n">
         <v>3</v>
@@ -17447,10 +17432,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F435" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -17476,10 +17461,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F436" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -17505,10 +17490,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F437" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -17534,10 +17519,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F438" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -17563,10 +17548,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F439" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17592,10 +17577,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F440" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17621,10 +17606,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F441" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -17650,10 +17635,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F442" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -17679,10 +17664,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>300</v>
+      </c>
+      <c r="F443" t="s">
         <v>301</v>
-      </c>
-      <c r="F443" t="s">
-        <v>302</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -17708,10 +17693,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F444" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17737,10 +17722,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F445" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -17766,10 +17751,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F446" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17795,10 +17780,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F447" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17824,10 +17809,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F448" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17853,10 +17838,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F449" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17882,10 +17867,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F450" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17911,10 +17896,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F451" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G451" t="n">
         <v>7</v>
@@ -17940,10 +17925,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F452" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17969,10 +17954,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F453" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17998,10 +17983,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F454" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -18027,10 +18012,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F455" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -18056,10 +18041,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F456" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -18085,10 +18070,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F457" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G457" t="n">
         <v>9</v>
@@ -18114,10 +18099,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F458" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -18143,10 +18128,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F459" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -18172,10 +18157,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F460" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G460" t="n">
         <v>3</v>
@@ -18201,10 +18186,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F461" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -18230,10 +18215,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F462" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -18259,10 +18244,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F463" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -18288,10 +18273,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F464" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -18317,10 +18302,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F465" t="s">
-        <v>842</v>
+        <v>198</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -18346,10 +18331,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F466" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -18375,10 +18360,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F467" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -18404,10 +18389,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F468" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -18433,10 +18418,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F469" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -18462,10 +18447,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F470" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18491,10 +18476,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F471" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18520,10 +18505,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F472" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18549,10 +18534,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F473" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18578,10 +18563,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F474" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18607,10 +18592,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F475" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18636,10 +18621,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F476" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18665,10 +18650,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F477" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18694,10 +18679,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F478" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18723,10 +18708,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F479" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18752,10 +18737,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F480" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18781,10 +18766,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F481" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -18810,10 +18795,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F482" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18839,10 +18824,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F483" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18868,10 +18853,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F484" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18897,10 +18882,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F485" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18926,10 +18911,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F486" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -18955,10 +18940,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F487" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18984,10 +18969,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F488" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -19013,10 +18998,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F489" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -19042,10 +19027,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F490" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -19071,10 +19056,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F491" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -19100,10 +19085,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F492" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -19129,10 +19114,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F493" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -19158,10 +19143,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F494" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -19187,10 +19172,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F495" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -19216,10 +19201,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F496" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -19245,10 +19230,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F497" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -19274,10 +19259,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F498" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -19303,10 +19288,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F499" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -19332,10 +19317,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F500" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -19361,10 +19346,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F501" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -19390,10 +19375,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F502" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -19419,10 +19404,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F503" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -19448,10 +19433,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F504" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -19477,10 +19462,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F505" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -19506,10 +19491,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F506" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -19535,10 +19520,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F507" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19564,10 +19549,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F508" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -19593,10 +19578,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F509" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19622,10 +19607,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F510" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19651,10 +19636,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F511" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19680,10 +19665,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F512" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -19709,10 +19694,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F513" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19738,10 +19723,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F514" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -19767,10 +19752,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F515" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19796,10 +19781,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F516" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19825,10 +19810,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F517" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19854,10 +19839,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F518" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19883,10 +19868,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F519" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19912,10 +19897,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F520" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19941,10 +19926,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F521" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G521" t="n">
         <v>3</v>
@@ -19970,10 +19955,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F522" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19999,10 +19984,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F523" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -20028,10 +20013,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F524" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -20057,10 +20042,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F525" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -20086,10 +20071,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F526" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -20115,10 +20100,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F527" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -20144,10 +20129,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F528" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -20173,10 +20158,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F529" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -20202,10 +20187,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F530" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G530" t="n">
         <v>11</v>
@@ -20231,10 +20216,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F531" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -20260,10 +20245,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F532" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -20289,10 +20274,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F533" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G533" t="n">
         <v>5</v>
@@ -20318,10 +20303,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F534" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G534" t="n">
         <v>8</v>
@@ -20347,10 +20332,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F535" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -20376,10 +20361,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F536" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -20405,10 +20390,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F537" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -20434,10 +20419,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F538" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -20463,10 +20448,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F539" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -20492,10 +20477,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F540" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -20521,10 +20506,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F541" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -20550,10 +20535,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F542" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20579,10 +20564,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F543" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20608,10 +20593,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F544" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20637,10 +20622,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F545" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G545" t="n">
         <v>6</v>
@@ -20666,10 +20651,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F546" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20695,10 +20680,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F547" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20724,10 +20709,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F548" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20753,10 +20738,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F549" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G549" t="n">
         <v>2</v>
@@ -20782,10 +20767,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F550" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20811,10 +20796,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F551" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20840,10 +20825,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F552" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20869,10 +20854,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F553" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20898,10 +20883,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F554" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20956,10 +20941,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F556" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -20985,10 +20970,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F557" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G557" t="n">
         <v>3</v>
@@ -21014,10 +20999,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F558" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G558" t="n">
         <v>4</v>
@@ -21043,10 +21028,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F559" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G559" t="n">
         <v>4</v>
@@ -21072,10 +21057,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F560" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G560" t="n">
         <v>2</v>
@@ -21101,10 +21086,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F561" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G561" t="n">
         <v>2</v>
@@ -21130,10 +21115,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F562" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -21159,10 +21144,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F563" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -21188,10 +21173,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F564" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -21217,10 +21202,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F565" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -21246,10 +21231,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F566" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -21275,10 +21260,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F567" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G567" t="n">
         <v>3</v>
@@ -21304,10 +21289,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F568" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -21333,10 +21318,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F569" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -21362,10 +21347,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F570" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G570" t="n">
         <v>4</v>
@@ -21391,10 +21376,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F571" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -21420,10 +21405,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F572" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -21449,10 +21434,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F573" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G573" t="n">
         <v>6</v>
@@ -21478,10 +21463,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F574" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -21507,10 +21492,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F575" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21536,10 +21521,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F576" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21565,10 +21550,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F577" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G577" t="n">
         <v>4</v>
@@ -21594,10 +21579,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F578" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21623,10 +21608,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F579" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21652,10 +21637,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F580" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21681,10 +21666,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F581" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G581" t="n">
         <v>6</v>
@@ -21710,10 +21695,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F582" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21739,10 +21724,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F583" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21768,10 +21753,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F584" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21797,10 +21782,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F585" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21826,10 +21811,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F586" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21855,10 +21840,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F587" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21884,10 +21869,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F588" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21913,10 +21898,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F589" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21942,10 +21927,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F590" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G590" t="n">
         <v>2</v>
@@ -21971,10 +21956,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F591" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G591" t="n">
         <v>3</v>
@@ -22000,10 +21985,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F592" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G592" t="n">
         <v>3</v>
@@ -22029,10 +22014,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F593" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -22058,10 +22043,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F594" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -22087,10 +22072,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F595" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -22116,10 +22101,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F596" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -22145,10 +22130,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F597" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G597" t="n">
         <v>2</v>
@@ -22174,10 +22159,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F598" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -22203,10 +22188,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F599" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G599" t="n">
         <v>3</v>
@@ -22232,10 +22217,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F600" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G600" t="n">
         <v>3</v>
@@ -22261,10 +22246,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F601" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G601" t="n">
         <v>5</v>
@@ -22290,10 +22275,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
+        <v>326</v>
+      </c>
+      <c r="F602" t="s">
         <v>327</v>
-      </c>
-      <c r="F602" t="s">
-        <v>328</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -22319,10 +22304,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F603" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -22348,10 +22333,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F604" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -22377,10 +22362,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F605" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -22406,10 +22391,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F606" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -22435,10 +22420,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F607" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G607" t="n">
         <v>2</v>
@@ -22464,10 +22449,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F608" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -22493,10 +22478,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F609" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G609" t="n">
         <v>2</v>
@@ -22522,10 +22507,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F610" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G610" t="n">
         <v>2</v>
@@ -22551,10 +22536,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F611" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22580,10 +22565,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F612" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22609,10 +22594,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F613" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22638,10 +22623,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F614" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22667,10 +22652,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F615" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22696,10 +22681,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F616" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22725,10 +22710,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F617" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22754,10 +22739,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F618" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22783,10 +22768,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F619" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22812,10 +22797,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F620" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22841,10 +22826,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F621" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22870,10 +22855,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F622" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22899,10 +22884,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F623" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22928,10 +22913,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F624" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22957,10 +22942,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F625" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22986,10 +22971,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F626" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -23015,10 +23000,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F627" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -23044,10 +23029,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F628" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -23073,10 +23058,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F629" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -23102,10 +23087,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F630" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -23131,10 +23116,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F631" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G631" t="n">
         <v>5</v>
@@ -23160,10 +23145,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F632" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -23189,10 +23174,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F633" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23218,10 +23203,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F634" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -23247,10 +23232,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F635" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -23276,10 +23261,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F636" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G636" t="n">
         <v>2</v>
@@ -23305,10 +23290,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F637" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -23334,10 +23319,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F638" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -23363,10 +23348,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F639" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -23479,10 +23464,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F643" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -23508,10 +23493,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F644" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="G644" t="n">
         <v>3</v>
@@ -23537,10 +23522,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F645" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23566,10 +23551,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F646" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23595,10 +23580,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F647" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23624,10 +23609,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F648" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23653,10 +23638,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F649" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23682,10 +23667,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F650" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23711,10 +23696,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F651" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23740,10 +23725,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F652" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23769,10 +23754,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F653" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23827,10 +23812,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F655" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23856,10 +23841,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F656" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="G656" t="n">
         <v>2</v>
@@ -23885,10 +23870,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F657" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23914,10 +23899,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F658" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23943,10 +23928,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F659" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -24001,10 +23986,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F661" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -24030,10 +24015,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F662" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -24059,10 +24044,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F663" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -24088,10 +24073,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F664" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="G664" t="n">
         <v>2</v>
@@ -24117,10 +24102,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F665" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -24146,10 +24131,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F666" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -24175,10 +24160,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F667" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -24204,10 +24189,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F668" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -24233,10 +24218,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F669" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="G669" t="n">
         <v>2</v>
@@ -24262,10 +24247,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F670" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -24291,10 +24276,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F671" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G671" t="n">
         <v>2</v>
@@ -24320,10 +24305,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F672" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="G672" t="n">
         <v>2</v>
@@ -24349,10 +24334,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F673" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="G673" t="n">
         <v>2</v>
@@ -24378,10 +24363,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F674" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -24407,10 +24392,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F675" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -24436,10 +24421,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F676" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G676" t="n">
         <v>2</v>
@@ -24465,10 +24450,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F677" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -24494,10 +24479,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F678" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24523,10 +24508,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F679" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="G679" t="n">
         <v>2</v>
@@ -24552,10 +24537,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F680" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24581,10 +24566,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F681" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24610,10 +24595,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="F682" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -24639,10 +24624,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F683" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="G683" t="n">
         <v>2</v>
@@ -24668,10 +24653,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F684" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24697,10 +24682,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F685" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24726,10 +24711,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F686" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24755,10 +24740,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F687" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24784,10 +24769,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F688" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24813,10 +24798,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F689" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24842,10 +24827,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F690" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24871,10 +24856,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F691" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24900,10 +24885,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F692" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24929,10 +24914,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F693" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24958,10 +24943,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F694" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24987,10 +24972,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F695" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -25016,10 +25001,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F696" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -25045,10 +25030,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F697" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25074,10 +25059,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F698" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -25103,10 +25088,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F699" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -25132,10 +25117,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="F700" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -25161,10 +25146,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F701" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -25190,10 +25175,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F702" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25219,10 +25204,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="F703" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -25248,10 +25233,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="F704" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -25277,10 +25262,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="F705" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25306,10 +25291,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="F706" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -25335,10 +25320,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F707" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -25364,10 +25349,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F708" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -25393,10 +25378,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="F709" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25422,10 +25407,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F710" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -25451,10 +25436,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="F711" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="G711" t="n">
         <v>2</v>
@@ -25480,10 +25465,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F712" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -25509,10 +25494,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="F713" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25538,10 +25523,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="F714" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="G714" t="n">
         <v>3</v>
@@ -25567,10 +25552,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="F715" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G715" t="n">
         <v>3</v>
@@ -25596,10 +25581,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="F716" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -25625,10 +25610,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="F717" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="G717" t="n">
         <v>3</v>
@@ -25654,10 +25639,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="F718" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25683,10 +25668,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="F719" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25712,10 +25697,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="F720" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25741,10 +25726,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="F721" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25770,10 +25755,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F722" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="G722" t="n">
         <v>2</v>
@@ -25799,10 +25784,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="F723" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -25828,10 +25813,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="F724" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -25857,10 +25842,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="F725" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25886,10 +25871,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="F726" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -25915,10 +25900,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="F727" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -25944,10 +25929,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="F728" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -25973,10 +25958,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="F729" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -26002,10 +25987,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="F730" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26031,10 +26016,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="F731" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26060,10 +26045,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="F732" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -26089,10 +26074,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="F733" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -26118,10 +26103,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="F734" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -26147,10 +26132,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="F735" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -26176,10 +26161,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F736" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -26205,10 +26190,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="F737" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -26234,10 +26219,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="F738" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -26263,10 +26248,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="F739" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -26292,10 +26277,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="F740" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -26321,10 +26306,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="F741" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -26350,10 +26335,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="F742" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -26379,10 +26364,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="F743" t="s">
-        <v>1440</v>
+        <v>1292</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -26408,10 +26393,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="F744" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="G744" t="n">
         <v>2</v>
@@ -26437,10 +26422,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="F745" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26466,10 +26451,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="F746" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26495,10 +26480,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="F747" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26524,10 +26509,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="F748" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26553,10 +26538,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="F749" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="G749" t="n">
         <v>3</v>
@@ -26582,10 +26567,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="F750" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26611,10 +26596,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="F751" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26640,10 +26625,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="F752" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -26669,10 +26654,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="F753" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26698,10 +26683,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F754" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -26727,10 +26712,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="F755" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26756,10 +26741,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="F756" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -26785,10 +26770,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="F757" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -26814,10 +26799,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F758" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G758" t="n">
         <v>2</v>
@@ -26843,10 +26828,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="F759" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -26872,10 +26857,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="F760" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -26901,10 +26886,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="F761" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -26930,10 +26915,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="F762" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -26959,10 +26944,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="F763" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -26988,10 +26973,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="F764" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="G764" t="n">
         <v>2</v>
@@ -27017,10 +27002,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="F765" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27046,10 +27031,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="F766" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="G766" t="n">
         <v>2</v>
@@ -27075,10 +27060,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="F767" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="G767" t="n">
         <v>3</v>
@@ -27104,10 +27089,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="F768" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -27133,10 +27118,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="F769" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -27162,10 +27147,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="F770" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
